--- a/Son_Hali.xlsx
+++ b/Son_Hali.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeynepgunesozkan/Desktop/VowelHarmony/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73096C42-D170-7B46-9F2C-DA8DAB73EEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C214AD4-71C4-C748-9416-6CEB7807621D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11980" yWindow="500" windowWidth="16820" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="305">
   <si>
     <t>Word</t>
   </si>
@@ -942,12 +942,21 @@
   </si>
   <si>
     <t>heka</t>
+  </si>
+  <si>
+    <t>word old20 sd</t>
+  </si>
+  <si>
+    <t>freq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1056,6 +1065,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="136" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1567,15 +1578,15 @@
       <c r="L5" s="11">
         <v>1.9</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -1796,15 +1807,15 @@
       <c r="L9" s="11">
         <v>1.8</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
@@ -2058,6 +2069,12 @@
       <c r="L15" s="11">
         <v>1.8</v>
       </c>
+      <c r="O15" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="16" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
@@ -2097,8 +2114,19 @@
       <c r="L16" s="11">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" s="14">
+        <f>STDEV(H2:H72)</f>
+        <v>0.2840175980038146</v>
+      </c>
+      <c r="P16" s="14">
+        <f>STDEV(I2:I72)</f>
+        <v>0.41270462675221781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>110</v>
       </c>
@@ -2136,8 +2164,19 @@
       <c r="L17" s="11">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="O17" s="14">
+        <f>STDEV(H73:H143)</f>
+        <v>0.25673033084671232</v>
+      </c>
+      <c r="P17" s="14">
+        <f>STDEV(I73:I143)</f>
+        <v>0.41587547955534815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>116</v>
       </c>
@@ -2175,8 +2214,10 @@
       <c r="L18" s="11">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>109</v>
       </c>
@@ -2214,8 +2255,9 @@
       <c r="L19" s="11">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>12</v>
       </c>
@@ -2253,8 +2295,9 @@
       <c r="L20" s="11">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
@@ -2292,8 +2335,9 @@
       <c r="L21" s="11">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>11</v>
       </c>
@@ -2331,8 +2375,9 @@
       <c r="L22" s="11">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>108</v>
       </c>
@@ -2371,7 +2416,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -2410,7 +2455,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>102</v>
       </c>
@@ -2449,7 +2494,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
@@ -2488,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>28</v>
       </c>
@@ -2527,7 +2572,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
@@ -2566,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>31</v>
       </c>
@@ -2605,7 +2650,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>19</v>
       </c>
@@ -2644,7 +2689,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>132</v>
       </c>
@@ -2683,7 +2728,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>18</v>
       </c>
@@ -4589,7 +4634,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
         <v>55</v>
       </c>
@@ -4628,7 +4673,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
         <v>103</v>
       </c>
@@ -4667,7 +4712,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
         <v>96</v>
       </c>
@@ -4706,7 +4751,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
         <v>54</v>
       </c>
@@ -4745,7 +4790,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
         <v>59</v>
       </c>
@@ -4784,7 +4829,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
         <v>53</v>
       </c>
@@ -4823,7 +4868,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
         <v>60</v>
       </c>
@@ -4861,8 +4906,12 @@
       <c r="L87" s="12">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <f>AVERAGE(F2:F143)</f>
+        <v>4.971830985915493</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
         <v>52</v>
       </c>
@@ -4901,7 +4950,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
         <v>104</v>
       </c>
@@ -4940,7 +4989,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
         <v>58</v>
       </c>
@@ -4979,7 +5028,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
         <v>50</v>
       </c>
@@ -5018,7 +5067,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
         <v>51</v>
       </c>
@@ -5057,7 +5106,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
         <v>49</v>
       </c>
@@ -5096,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
         <v>57</v>
       </c>
@@ -5133,7 +5182,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
         <v>56</v>
       </c>
@@ -5172,7 +5221,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
         <v>47</v>
       </c>
